--- a/log_history/Y4_B2526_Dermatology_scanner1765448298024_795f4daa84a2f6b8fd4fd7e7d3270b4b8fdb612e669472888fc82a779fddb58d.xlsx
+++ b/log_history/Y4_B2526_Dermatology_scanner1765448298024_795f4daa84a2f6b8fd4fd7e7d3270b4b8fdb612e669472888fc82a779fddb58d.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Scanner" sheetId="1" r:id="rId1"/>
+    <sheet name="Dermatology" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
